--- a/#js6原生/1基础/5.语句(控制流程和赋值)/Module/code/ec6和node的不同之处/比较.xlsx
+++ b/#js6原生/1基础/5.语句(控制流程和赋值)/Module/code/ec6和node的不同之处/比较.xlsx
@@ -132,11 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>require('')
-//等价于引入一段代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">import ''
 </t>
@@ -350,6 +345,11 @@
       </rPr>
       <t>值的改变而改变</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require('')
+//等价于引入一段代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +912,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>8</v>
@@ -975,30 +975,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="92.25" customHeight="1" thickTop="1">
       <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>

--- a/#js6原生/1基础/5.语句(控制流程和赋值)/Module/code/ec6和node的不同之处/比较.xlsx
+++ b/#js6原生/1基础/5.语句(控制流程和赋值)/Module/code/ec6和node的不同之处/比较.xlsx
@@ -14,117 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>引入方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>引入目录下的所有文件
 require.context</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出对象包含多个数据</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>exports.a=1,export.b=2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出单个变量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>export defalt i</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">输出单个变量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>moudule.exports=i</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -149,75 +42,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>输入方作用域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改引入方的obj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1要靠引入方的函数改引入方的变量(vuex用的也是这个)
 2.修改引入的obj的键值(export default{a:1 fn(){}})
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">import {a,b,c} from ''
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>import i from ''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>输出对象包含多个数据</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>接口类型</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve"> i</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>export{a,b,c,}//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>或</t>
+      <t>不能被重新赋值</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">export const a </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">import {a,b,c} from ''
-</t>
+      <t>,i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是普通类型也会随着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值的改变而改变</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require('')
+//等价于引入一段代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴漏方作用域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改暴漏方的obj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴漏方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴漏单个变量
+export defalt i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴漏对象包含多个数据
+export{a,b,c,}//或export const a </t>
+  </si>
+  <si>
+    <t>暴漏代码</t>
+  </si>
+  <si>
+    <t>暴漏单个变量
+moudule.exports=i</t>
+  </si>
+  <si>
+    <t>暴漏对象包含多个数据
+exports.a=1,export.b=2</t>
+  </si>
+  <si>
+    <t>引入方</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -259,105 +219,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>import i from ''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不能被重新赋值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果是普通类型也会随着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值的改变而改变</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require('')
-//等价于引入一段代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,12 +245,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -404,14 +265,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -419,36 +272,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -491,28 +318,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -520,29 +335,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,61 +350,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -909,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -920,97 +707,92 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="25.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="84.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="87.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="84.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="92.25" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="87.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="92.25" customHeight="1" thickTop="1">
-      <c r="A4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
